--- a/data/RawData/ObsData/2009-2022/2013/13-03-2013.xlsx
+++ b/data/RawData/ObsData/2009-2022/2013/13-03-2013.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Golden lion tamarin Brazil\Analysis\GoldenLionTamarins\data\RawData\Groups\2013\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2013\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31040F1A-76FA-4D0C-A40E-79D68EC54A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD44A59-3F4B-4CFA-B823-90557851ACFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -1090,9 +1090,6 @@
     <t>T124-LE</t>
   </si>
   <si>
-    <t>MP104</t>
-  </si>
-  <si>
     <t xml:space="preserve">IN </t>
   </si>
   <si>
@@ -1226,6 +1223,9 @@
   </si>
   <si>
     <t>Boa Esperança</t>
+  </si>
+  <si>
+    <t>MP104.1</t>
   </si>
 </sst>
 </file>
@@ -2982,7 +2982,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3305,10 +3305,10 @@
   <dimension ref="A1:Q142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+      <selection activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="128" t="s">
@@ -3882,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="241" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -4115,7 +4115,7 @@
       <c r="H21" s="60"/>
       <c r="I21" s="29"/>
       <c r="J21" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>74</v>
@@ -7658,13 +7658,13 @@
       <c r="I111" s="2"/>
       <c r="J111" s="245"/>
       <c r="K111" s="213" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="L111" s="213"/>
       <c r="M111" s="213"/>
       <c r="N111" s="213"/>
       <c r="O111" s="213" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P111" s="247" t="s">
         <v>81</v>
@@ -7674,13 +7674,13 @@
     <row r="112" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="61"/>
       <c r="B112" s="53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C112" s="53" t="s">
         <v>20</v>
       </c>
       <c r="D112" s="53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E112" s="53" t="s">
         <v>13</v>
@@ -7695,7 +7695,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="215"/>
       <c r="K112" s="178" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L112" s="178" t="s">
         <v>1</v>
@@ -7717,13 +7717,13 @@
     <row r="113" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="53"/>
       <c r="B113" s="53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C113" s="53" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E113" s="53" t="s">
         <v>13</v>
@@ -7748,13 +7748,13 @@
     <row r="114" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="53"/>
       <c r="B114" s="53" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C114" s="53" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="53" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E114" s="53" t="s">
         <v>19</v>
@@ -7768,7 +7768,7 @@
       <c r="H114" s="265"/>
       <c r="I114" s="2"/>
       <c r="J114" s="182" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K114" s="91"/>
       <c r="L114" s="165"/>
@@ -7791,7 +7791,7 @@
     <row r="115" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A115" s="53"/>
       <c r="B115" s="53" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C115" s="53"/>
       <c r="D115" s="53"/>
@@ -7805,16 +7805,16 @@
       <c r="H115" s="265"/>
       <c r="I115" s="2"/>
       <c r="J115" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="K115" s="22" t="s">
         <v>360</v>
-      </c>
-      <c r="K115" s="22" t="s">
-        <v>361</v>
       </c>
       <c r="L115" s="22" t="s">
         <v>252</v>
       </c>
       <c r="M115" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N115" s="11" t="s">
         <v>19</v>
@@ -7823,16 +7823,16 @@
         <v>14</v>
       </c>
       <c r="P115" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q115" s="127" t="s">
         <v>362</v>
-      </c>
-      <c r="Q115" s="127" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="67"/>
       <c r="B116" s="62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C116" s="62"/>
       <c r="D116" s="62"/>
@@ -7847,13 +7847,13 @@
       <c r="I116" s="2"/>
       <c r="J116" s="61"/>
       <c r="K116" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L116" s="53" t="s">
         <v>194</v>
       </c>
       <c r="M116" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N116" s="53" t="s">
         <v>13</v>
@@ -7865,7 +7865,7 @@
         <v>343</v>
       </c>
       <c r="Q116" s="50" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
@@ -7880,13 +7880,13 @@
       <c r="I117" s="2"/>
       <c r="J117" s="61"/>
       <c r="K117" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="L117" s="53" t="s">
         <v>367</v>
       </c>
-      <c r="L117" s="53" t="s">
-        <v>368</v>
-      </c>
       <c r="M117" s="53" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N117" s="53" t="s">
         <v>13</v>
@@ -7913,13 +7913,13 @@
       <c r="I118" s="2"/>
       <c r="J118" s="67"/>
       <c r="K118" s="62" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L118" s="62" t="s">
         <v>236</v>
       </c>
       <c r="M118" s="62" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N118" s="62" t="s">
         <v>13</v>
@@ -7964,16 +7964,16 @@
       <c r="H120" s="126"/>
       <c r="I120" s="2"/>
       <c r="J120" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="K120" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K120" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="L120" s="7" t="s">
         <v>96</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N120" s="7" t="s">
         <v>13</v>
@@ -7982,7 +7982,7 @@
         <v>14</v>
       </c>
       <c r="P120" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q120" s="41" t="s">
         <v>228</v>
@@ -8000,13 +8000,13 @@
       <c r="I121" s="150"/>
       <c r="J121" s="8"/>
       <c r="K121" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L121" s="7" t="s">
         <v>280</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N121" s="7" t="s">
         <v>13</v>
@@ -8015,10 +8015,10 @@
         <v>14</v>
       </c>
       <c r="P121" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q121" s="50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
@@ -8033,13 +8033,13 @@
       <c r="I122" s="2"/>
       <c r="J122" s="61"/>
       <c r="K122" s="53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L122" s="53" t="s">
         <v>277</v>
       </c>
       <c r="M122" s="53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N122" s="53" t="s">
         <v>19</v>
@@ -8051,7 +8051,7 @@
         <v>343</v>
       </c>
       <c r="Q122" s="50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
@@ -8066,13 +8066,13 @@
       <c r="I123" s="2"/>
       <c r="J123" s="61"/>
       <c r="K123" s="53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L123" s="53" t="s">
         <v>112</v>
       </c>
       <c r="M123" s="53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N123" s="53" t="s">
         <v>19</v>
@@ -8099,13 +8099,13 @@
       <c r="I124" s="2"/>
       <c r="J124" s="61"/>
       <c r="K124" s="53" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L124" s="53" t="s">
         <v>49</v>
       </c>
       <c r="M124" s="53" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N124" s="53" t="s">
         <v>13</v>
@@ -8132,13 +8132,13 @@
       <c r="I125" s="29"/>
       <c r="J125" s="67"/>
       <c r="K125" s="62" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L125" s="62" t="s">
         <v>49</v>
       </c>
       <c r="M125" s="62" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N125" s="62" t="s">
         <v>13</v>
@@ -8183,16 +8183,16 @@
       <c r="H127" s="1"/>
       <c r="I127" s="29"/>
       <c r="J127" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="K127" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="K127" s="11" t="s">
-        <v>381</v>
       </c>
       <c r="L127" s="11" t="s">
         <v>99</v>
       </c>
       <c r="M127" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N127" s="11" t="s">
         <v>19</v>
@@ -8204,7 +8204,7 @@
         <v>155</v>
       </c>
       <c r="Q127" s="127" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
@@ -8219,13 +8219,13 @@
       <c r="I128" s="2"/>
       <c r="J128" s="8"/>
       <c r="K128" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L128" s="7" t="s">
         <v>86</v>
       </c>
       <c r="M128" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N128" s="7" t="s">
         <v>13</v>
@@ -8234,7 +8234,7 @@
         <v>14</v>
       </c>
       <c r="P128" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q128" s="13"/>
     </row>
@@ -8242,13 +8242,13 @@
       <c r="I129" s="2"/>
       <c r="J129" s="61"/>
       <c r="K129" s="53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L129" s="53" t="s">
         <v>125</v>
       </c>
       <c r="M129" s="53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N129" s="53" t="s">
         <v>13</v>
@@ -8267,13 +8267,13 @@
       <c r="I130" s="2"/>
       <c r="J130" s="61"/>
       <c r="K130" s="53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L130" s="53" t="s">
         <v>141</v>
       </c>
       <c r="M130" s="53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N130" s="53" t="s">
         <v>13</v>
@@ -8292,13 +8292,13 @@
       <c r="I131" s="2"/>
       <c r="J131" s="61"/>
       <c r="K131" s="53" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L131" s="53" t="s">
         <v>137</v>
       </c>
       <c r="M131" s="53" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N131" s="53" t="s">
         <v>19</v>
@@ -8317,13 +8317,13 @@
       <c r="I132" s="2"/>
       <c r="J132" s="61"/>
       <c r="K132" s="53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L132" s="53" t="s">
         <v>51</v>
       </c>
       <c r="M132" s="53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N132" s="53" t="s">
         <v>19</v>
@@ -8342,13 +8342,13 @@
       <c r="I133" s="2"/>
       <c r="J133" s="61"/>
       <c r="K133" s="53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L133" s="53" t="s">
         <v>128</v>
       </c>
       <c r="M133" s="53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N133" s="53" t="s">
         <v>19</v>
@@ -8367,13 +8367,13 @@
       <c r="I134" s="2"/>
       <c r="J134" s="64"/>
       <c r="K134" s="65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L134" s="65" t="s">
         <v>132</v>
       </c>
       <c r="M134" s="65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N134" s="65" t="s">
         <v>19</v>
@@ -8385,14 +8385,14 @@
         <v>98</v>
       </c>
       <c r="Q134" s="152" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="135" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I135" s="2"/>
       <c r="J135" s="145"/>
       <c r="K135" s="284" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L135" s="284"/>
       <c r="M135" s="284"/>
@@ -8401,7 +8401,7 @@
         <v>34</v>
       </c>
       <c r="P135" s="285" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q135" s="286"/>
     </row>
@@ -8409,7 +8409,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="287"/>
       <c r="K136" s="288" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L136" s="288"/>
       <c r="M136" s="288"/>
@@ -8418,7 +8418,7 @@
         <v>34</v>
       </c>
       <c r="P136" s="260" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q136" s="116"/>
     </row>
@@ -8499,7 +8499,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -8511,7 +8511,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/data/RawData/ObsData/2009-2022/2013/13-03-2013.xlsx
+++ b/data/RawData/ObsData/2009-2022/2013/13-03-2013.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2013\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD44A59-3F4B-4CFA-B823-90557851ACFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEE72E4-D4CC-46B9-B650-FE76BC7031DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="398">
   <si>
     <t>Grupos Equipe Meta -13-março-2013</t>
   </si>
@@ -2070,7 +2070,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="384">
+  <cellXfs count="383">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2778,7 +2778,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3304,13 +3303,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="K112" sqref="K112"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28:J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
@@ -3333,7 +3332,7 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="131"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="132"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -3352,7 +3351,7 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="101"/>
     </row>
-    <row r="3" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="133" t="s">
         <v>2</v>
       </c>
@@ -3375,7 +3374,7 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="208"/>
     </row>
-    <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="289" t="s">
         <v>3</v>
       </c>
@@ -3426,7 +3425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
@@ -3477,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
@@ -3524,7 +3523,7 @@
       </c>
       <c r="Q6" s="13"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="19">
         <v>1320</v>
@@ -3571,7 +3570,7 @@
         <v>4947</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="19">
         <v>1321</v>
@@ -3616,7 +3615,7 @@
       </c>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="64"/>
       <c r="B9" s="65">
         <v>1333</v>
@@ -3659,7 +3658,7 @@
       </c>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="64"/>
       <c r="B10" s="53">
         <v>1342</v>
@@ -3694,7 +3693,7 @@
       </c>
       <c r="Q10" s="272"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="61"/>
       <c r="B11" s="53">
         <v>1343</v>
@@ -3733,7 +3732,7 @@
       </c>
       <c r="Q11" s="274"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="298"/>
       <c r="B12" s="299">
         <v>1351</v>
@@ -3772,7 +3771,7 @@
       </c>
       <c r="Q12" s="162"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="303" t="s">
         <v>1</v>
       </c>
@@ -3817,7 +3816,7 @@
       </c>
       <c r="Q13" s="63"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="134"/>
       <c r="B14" s="93"/>
       <c r="C14" s="93"/>
@@ -3836,8 +3835,8 @@
       <c r="P14" s="203"/>
       <c r="Q14" s="204"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="318" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="317" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="186">
@@ -3856,7 +3855,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="186"/>
-      <c r="H15" s="319" t="s">
+      <c r="H15" s="318" t="s">
         <v>1</v>
       </c>
       <c r="I15" s="2"/>
@@ -3885,7 +3884,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="184"/>
       <c r="B16" s="46">
         <v>812</v>
@@ -3930,7 +3929,7 @@
         <v>4113</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="293"/>
       <c r="B17" s="292">
         <v>1332</v>
@@ -3947,10 +3946,10 @@
       <c r="F17" s="270" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="320" t="s">
+      <c r="G17" s="319" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="321"/>
+      <c r="H17" s="320"/>
       <c r="I17" s="29"/>
       <c r="J17" s="61"/>
       <c r="K17" s="53">
@@ -3973,7 +3972,7 @@
       </c>
       <c r="Q17" s="16"/>
     </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="135"/>
       <c r="B18" s="94"/>
       <c r="C18" s="94"/>
@@ -3983,7 +3982,7 @@
       <c r="G18" s="94"/>
       <c r="H18" s="57"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="315" t="s">
+      <c r="J18" s="314" t="s">
         <v>56</v>
       </c>
       <c r="K18" s="292">
@@ -4001,12 +4000,12 @@
       <c r="O18" s="292" t="s">
         <v>52</v>
       </c>
-      <c r="P18" s="313" t="s">
+      <c r="P18" s="312" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" s="314"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="313"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
         <v>59</v>
       </c>
@@ -4041,7 +4040,7 @@
       <c r="P19" s="96"/>
       <c r="Q19" s="136"/>
     </row>
-    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>63</v>
       </c>
@@ -4090,7 +4089,7 @@
       </c>
       <c r="Q20" s="252"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>1</v>
       </c>
@@ -4137,7 +4136,7 @@
       </c>
       <c r="Q21" s="108"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>1</v>
       </c>
@@ -4161,7 +4160,7 @@
       </c>
       <c r="H22" s="60"/>
       <c r="I22" s="29"/>
-      <c r="J22" s="338" t="s">
+      <c r="J22" s="337" t="s">
         <v>1</v>
       </c>
       <c r="K22" s="299" t="s">
@@ -4174,31 +4173,31 @@
       <c r="N22" s="299" t="s">
         <v>80</v>
       </c>
-      <c r="O22" s="339"/>
-      <c r="P22" s="340" t="s">
+      <c r="O22" s="338"/>
+      <c r="P22" s="339" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="311"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q22" s="310"/>
+    </row>
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="273" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="316" t="s">
+      <c r="B23" s="315" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="316"/>
-      <c r="D23" s="316"/>
-      <c r="E23" s="316"/>
-      <c r="F23" s="316" t="s">
+      <c r="C23" s="315"/>
+      <c r="D23" s="315"/>
+      <c r="E23" s="315"/>
+      <c r="F23" s="315" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="317" t="s">
+      <c r="G23" s="316" t="s">
         <v>42</v>
       </c>
       <c r="H23" s="274"/>
       <c r="I23" s="29"/>
-      <c r="J23" s="341" t="s">
+      <c r="J23" s="340" t="s">
         <v>1</v>
       </c>
       <c r="K23" s="304" t="s">
@@ -4211,13 +4210,13 @@
       <c r="N23" s="304" t="s">
         <v>80</v>
       </c>
-      <c r="O23" s="342"/>
-      <c r="P23" s="343" t="s">
+      <c r="O23" s="341"/>
+      <c r="P23" s="342" t="s">
         <v>81</v>
       </c>
-      <c r="Q23" s="344"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="343"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="67"/>
       <c r="B24" s="62" t="s">
         <v>84</v>
@@ -4242,7 +4241,7 @@
       <c r="P24" s="96"/>
       <c r="Q24" s="96"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="229"/>
       <c r="B25" s="98"/>
       <c r="C25" s="98"/>
@@ -4252,32 +4251,32 @@
       <c r="G25" s="98"/>
       <c r="H25" s="99"/>
       <c r="I25" s="29"/>
-      <c r="J25" s="345" t="s">
+      <c r="J25" s="344" t="s">
         <v>85</v>
       </c>
-      <c r="K25" s="346">
+      <c r="K25" s="345">
         <v>1348</v>
       </c>
-      <c r="L25" s="346" t="s">
+      <c r="L25" s="345" t="s">
         <v>86</v>
       </c>
-      <c r="M25" s="346">
+      <c r="M25" s="345">
         <v>1348</v>
       </c>
-      <c r="N25" s="346" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25" s="346" t="s">
+      <c r="N25" s="345" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="347" t="s">
+      <c r="P25" s="346" t="s">
         <v>81</v>
       </c>
-      <c r="Q25" s="312">
+      <c r="Q25" s="311">
         <v>4635</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="171" t="s">
         <v>87</v>
       </c>
@@ -4302,7 +4301,7 @@
       <c r="P26" s="294"/>
       <c r="Q26" s="253"/>
     </row>
-    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>88</v>
       </c>
@@ -4335,7 +4334,7 @@
       <c r="P27" s="296"/>
       <c r="Q27" s="96"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>92</v>
       </c>
@@ -4361,30 +4360,30 @@
         <v>4357</v>
       </c>
       <c r="I28" s="29"/>
-      <c r="J28" s="345" t="s">
+      <c r="J28" s="344" t="s">
         <v>45</v>
       </c>
-      <c r="K28" s="346" t="s">
+      <c r="K28" s="345" t="s">
         <v>80</v>
       </c>
-      <c r="L28" s="346" t="s">
+      <c r="L28" s="345" t="s">
         <v>49</v>
       </c>
-      <c r="M28" s="346" t="s">
+      <c r="M28" s="345" t="s">
         <v>1</v>
       </c>
-      <c r="N28" s="346" t="s">
+      <c r="N28" s="345" t="s">
         <v>19</v>
       </c>
-      <c r="O28" s="346" t="s">
+      <c r="O28" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="P28" s="348" t="s">
+      <c r="P28" s="347" t="s">
         <v>81</v>
       </c>
-      <c r="Q28" s="349"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q28" s="348"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="61"/>
       <c r="B29" s="53" t="s">
         <v>95</v>
@@ -4406,7 +4405,9 @@
       </c>
       <c r="H29" s="66"/>
       <c r="I29" s="29"/>
-      <c r="J29" s="309"/>
+      <c r="J29" s="344" t="s">
+        <v>45</v>
+      </c>
       <c r="K29" s="299">
         <v>1350</v>
       </c>
@@ -4422,14 +4423,14 @@
       <c r="O29" s="299" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="310" t="s">
+      <c r="P29" s="309" t="s">
         <v>81</v>
       </c>
       <c r="Q29" s="161">
         <v>4242</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="61"/>
       <c r="B30" s="53" t="s">
         <v>100</v>
@@ -4451,7 +4452,9 @@
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="29"/>
-      <c r="J30" s="67"/>
+      <c r="J30" s="344" t="s">
+        <v>45</v>
+      </c>
       <c r="K30" s="25" t="s">
         <v>103</v>
       </c>
@@ -4464,7 +4467,7 @@
       <c r="P30" s="25"/>
       <c r="Q30" s="17"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="64"/>
       <c r="B31" s="65" t="s">
         <v>104</v>
@@ -4495,7 +4498,7 @@
       <c r="P31" s="251"/>
       <c r="Q31" s="251"/>
     </row>
-    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="61"/>
       <c r="B32" s="53" t="s">
         <v>107</v>
@@ -4528,7 +4531,7 @@
       <c r="P32" s="96"/>
       <c r="Q32" s="136"/>
     </row>
-    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="67" t="s">
         <v>1</v>
       </c>
@@ -4577,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="137"/>
       <c r="B34" s="102"/>
       <c r="C34" s="102"/>
@@ -4610,7 +4613,7 @@
         <v>4082</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="189" t="s">
         <v>119</v>
       </c>
@@ -4657,7 +4660,7 @@
       </c>
       <c r="Q35" s="279"/>
     </row>
-    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="137"/>
       <c r="B36" s="102"/>
       <c r="C36" s="102"/>
@@ -4688,7 +4691,7 @@
       </c>
       <c r="Q36" s="279"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="173" t="s">
         <v>129</v>
       </c>
@@ -4735,7 +4738,7 @@
       </c>
       <c r="Q37" s="16"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="209"/>
       <c r="B38" s="7" t="s">
         <v>134</v>
@@ -4778,7 +4781,7 @@
       </c>
       <c r="Q38" s="16"/>
     </row>
-    <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="139"/>
       <c r="B39" s="238" t="s">
         <v>139</v>
@@ -4821,7 +4824,7 @@
       </c>
       <c r="Q39" s="17"/>
     </row>
-    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="61" t="s">
         <v>1</v>
       </c>
@@ -4848,7 +4851,7 @@
       <c r="P40" s="163"/>
       <c r="Q40" s="230"/>
     </row>
-    <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="109"/>
       <c r="B41" s="62" t="s">
         <v>143</v>
@@ -4889,14 +4892,14 @@
         <v>4660</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="353"/>
-      <c r="B42" s="354"/>
-      <c r="C42" s="354"/>
-      <c r="D42" s="354"/>
-      <c r="E42" s="354"/>
-      <c r="F42" s="354"/>
-      <c r="G42" s="354"/>
+    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="352"/>
+      <c r="B42" s="353"/>
+      <c r="C42" s="353"/>
+      <c r="D42" s="353"/>
+      <c r="E42" s="353"/>
+      <c r="F42" s="353"/>
+      <c r="G42" s="353"/>
       <c r="H42" s="107"/>
       <c r="I42" s="52"/>
       <c r="J42" s="15" t="s">
@@ -4922,7 +4925,7 @@
       </c>
       <c r="Q42" s="16"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
         <v>149</v>
       </c>
@@ -4969,7 +4972,7 @@
       </c>
       <c r="Q43" s="51"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="104"/>
       <c r="B44" s="19" t="s">
         <v>154</v>
@@ -5008,7 +5011,7 @@
       </c>
       <c r="Q44" s="51"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="7" t="s">
         <v>157</v>
@@ -5047,7 +5050,7 @@
       </c>
       <c r="Q45" s="51"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
         <v>1</v>
       </c>
@@ -5096,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="104"/>
       <c r="B47" s="19" t="s">
         <v>161</v>
@@ -5127,7 +5130,7 @@
       <c r="P47" s="163"/>
       <c r="Q47" s="230"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>1</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="15"/>
       <c r="B49" s="53" t="s">
         <v>170</v>
@@ -5219,7 +5222,7 @@
       </c>
       <c r="Q49" s="17"/>
     </row>
-    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="269" t="s">
         <v>173</v>
       </c>
@@ -5246,7 +5249,7 @@
       <c r="P50" s="163"/>
       <c r="Q50" s="230"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="61"/>
       <c r="B51" s="53" t="s">
         <v>175</v>
@@ -5291,7 +5294,7 @@
       </c>
       <c r="Q51" s="27"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="283"/>
       <c r="B52" s="53" t="s">
         <v>181</v>
@@ -5336,7 +5339,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="67"/>
       <c r="B53" s="62" t="s">
         <v>185</v>
@@ -5379,16 +5382,16 @@
       </c>
       <c r="Q53" s="101"/>
     </row>
-    <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="356"/>
-      <c r="B54" s="357"/>
-      <c r="C54" s="357"/>
-      <c r="D54" s="357"/>
-      <c r="E54" s="357"/>
-      <c r="F54" s="357"/>
-      <c r="G54" s="358"/>
-      <c r="H54" s="357"/>
-      <c r="I54" s="359"/>
+    <row r="54" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="355"/>
+      <c r="B54" s="356"/>
+      <c r="C54" s="356"/>
+      <c r="D54" s="356"/>
+      <c r="E54" s="356"/>
+      <c r="F54" s="356"/>
+      <c r="G54" s="357"/>
+      <c r="H54" s="356"/>
+      <c r="I54" s="358"/>
       <c r="J54" s="8"/>
       <c r="K54" s="71" t="s">
         <v>189</v>
@@ -5410,18 +5413,18 @@
       </c>
       <c r="Q54" s="13"/>
     </row>
-    <row r="55" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="360" t="s">
+    <row r="55" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="359" t="s">
         <v>190</v>
       </c>
-      <c r="B55" s="361"/>
-      <c r="C55" s="362"/>
-      <c r="D55" s="362"/>
-      <c r="E55" s="362"/>
-      <c r="F55" s="362"/>
-      <c r="G55" s="363"/>
-      <c r="H55" s="362"/>
-      <c r="I55" s="359"/>
+      <c r="B55" s="360"/>
+      <c r="C55" s="361"/>
+      <c r="D55" s="361"/>
+      <c r="E55" s="361"/>
+      <c r="F55" s="361"/>
+      <c r="G55" s="362"/>
+      <c r="H55" s="361"/>
+      <c r="I55" s="358"/>
       <c r="J55" s="104"/>
       <c r="K55" s="46" t="s">
         <v>191</v>
@@ -5443,30 +5446,30 @@
       </c>
       <c r="Q55" s="16"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="364" t="s">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="363" t="s">
         <v>192</v>
       </c>
-      <c r="B56" s="365" t="s">
+      <c r="B56" s="364" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="365" t="s">
+      <c r="C56" s="364" t="s">
         <v>194</v>
       </c>
-      <c r="D56" s="365" t="s">
+      <c r="D56" s="364" t="s">
         <v>193</v>
       </c>
-      <c r="E56" s="365" t="s">
+      <c r="E56" s="364" t="s">
         <v>19</v>
       </c>
-      <c r="F56" s="365" t="s">
+      <c r="F56" s="364" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="366" t="s">
+      <c r="G56" s="365" t="s">
         <v>195</v>
       </c>
-      <c r="H56" s="367"/>
-      <c r="I56" s="359"/>
+      <c r="H56" s="366"/>
+      <c r="I56" s="358"/>
       <c r="J56" s="105"/>
       <c r="K56" s="46" t="s">
         <v>196</v>
@@ -5488,30 +5491,30 @@
       </c>
       <c r="Q56" s="16"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="368" t="s">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="367" t="s">
         <v>192</v>
       </c>
-      <c r="B57" s="369" t="s">
+      <c r="B57" s="368" t="s">
         <v>197</v>
       </c>
-      <c r="C57" s="369" t="s">
+      <c r="C57" s="368" t="s">
         <v>198</v>
       </c>
-      <c r="D57" s="369" t="s">
+      <c r="D57" s="368" t="s">
         <v>197</v>
       </c>
-      <c r="E57" s="369" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="369" t="s">
+      <c r="E57" s="368" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="368" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="370" t="s">
+      <c r="G57" s="369" t="s">
         <v>199</v>
       </c>
-      <c r="H57" s="371"/>
-      <c r="I57" s="359"/>
+      <c r="H57" s="370"/>
+      <c r="I57" s="358"/>
       <c r="J57" s="106" t="s">
         <v>1</v>
       </c>
@@ -5535,30 +5538,30 @@
       </c>
       <c r="Q57" s="51"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="368" t="s">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="367" t="s">
         <v>192</v>
       </c>
-      <c r="B58" s="369" t="s">
+      <c r="B58" s="368" t="s">
         <v>203</v>
       </c>
-      <c r="C58" s="369" t="s">
+      <c r="C58" s="368" t="s">
         <v>204</v>
       </c>
-      <c r="D58" s="369" t="s">
+      <c r="D58" s="368" t="s">
         <v>203</v>
       </c>
-      <c r="E58" s="369" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="369" t="s">
+      <c r="E58" s="368" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="368" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="370" t="s">
+      <c r="G58" s="369" t="s">
         <v>122</v>
       </c>
-      <c r="H58" s="371"/>
-      <c r="I58" s="359"/>
+      <c r="H58" s="370"/>
+      <c r="I58" s="358"/>
       <c r="J58" s="106"/>
       <c r="K58" s="53" t="s">
         <v>205</v>
@@ -5582,30 +5585,30 @@
         <v>4208</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="372" t="s">
+    <row r="59" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="371" t="s">
         <v>192</v>
       </c>
-      <c r="B59" s="373" t="s">
+      <c r="B59" s="372" t="s">
         <v>208</v>
       </c>
-      <c r="C59" s="373" t="s">
+      <c r="C59" s="372" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="373" t="s">
+      <c r="D59" s="372" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="373" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="373" t="s">
+      <c r="E59" s="372" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="372" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="374" t="s">
+      <c r="G59" s="373" t="s">
         <v>210</v>
       </c>
-      <c r="H59" s="375"/>
-      <c r="I59" s="359"/>
+      <c r="H59" s="374"/>
+      <c r="I59" s="358"/>
       <c r="J59" s="106"/>
       <c r="K59" s="53" t="s">
         <v>211</v>
@@ -5627,16 +5630,16 @@
       </c>
       <c r="Q59" s="51"/>
     </row>
-    <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="376"/>
-      <c r="B60" s="377"/>
-      <c r="C60" s="377"/>
-      <c r="D60" s="357"/>
-      <c r="E60" s="357"/>
-      <c r="F60" s="357"/>
-      <c r="G60" s="358"/>
-      <c r="H60" s="357"/>
-      <c r="I60" s="378"/>
+    <row r="60" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="375"/>
+      <c r="B60" s="376"/>
+      <c r="C60" s="376"/>
+      <c r="D60" s="356"/>
+      <c r="E60" s="356"/>
+      <c r="F60" s="356"/>
+      <c r="G60" s="357"/>
+      <c r="H60" s="356"/>
+      <c r="I60" s="377"/>
       <c r="J60" s="109"/>
       <c r="K60" s="62" t="s">
         <v>212</v>
@@ -5648,37 +5651,37 @@
       <c r="P60" s="159"/>
       <c r="Q60" s="63"/>
     </row>
-    <row r="61" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="376"/>
-      <c r="B61" s="377"/>
-      <c r="C61" s="379"/>
-      <c r="D61" s="380"/>
-      <c r="E61" s="377"/>
-      <c r="F61" s="377"/>
-      <c r="G61" s="381"/>
-      <c r="H61" s="377"/>
-      <c r="I61" s="378"/>
-      <c r="J61" s="352"/>
+    <row r="61" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="375"/>
+      <c r="B61" s="376"/>
+      <c r="C61" s="378"/>
+      <c r="D61" s="379"/>
+      <c r="E61" s="376"/>
+      <c r="F61" s="376"/>
+      <c r="G61" s="380"/>
+      <c r="H61" s="376"/>
+      <c r="I61" s="377"/>
+      <c r="J61" s="351"/>
       <c r="K61" s="76"/>
-      <c r="L61" s="350"/>
-      <c r="M61" s="351"/>
+      <c r="L61" s="349"/>
+      <c r="M61" s="350"/>
       <c r="N61" s="76"/>
       <c r="O61" s="76"/>
       <c r="P61" s="227"/>
       <c r="Q61" s="232"/>
     </row>
-    <row r="62" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="382" t="s">
+    <row r="62" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="381" t="s">
         <v>213</v>
       </c>
-      <c r="B62" s="383"/>
-      <c r="C62" s="361"/>
-      <c r="D62" s="380"/>
-      <c r="E62" s="377"/>
-      <c r="F62" s="377"/>
-      <c r="G62" s="381"/>
-      <c r="H62" s="377"/>
-      <c r="I62" s="378"/>
+      <c r="B62" s="382"/>
+      <c r="C62" s="360"/>
+      <c r="D62" s="379"/>
+      <c r="E62" s="376"/>
+      <c r="F62" s="376"/>
+      <c r="G62" s="380"/>
+      <c r="H62" s="376"/>
+      <c r="I62" s="377"/>
       <c r="J62" s="121" t="s">
         <v>214</v>
       </c>
@@ -5690,29 +5693,29 @@
       <c r="P62" s="59"/>
       <c r="Q62" s="140"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="326" t="s">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="325" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="327" t="s">
+      <c r="B63" s="326" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="327" t="s">
+      <c r="C63" s="326" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="327" t="s">
+      <c r="D63" s="326" t="s">
         <v>215</v>
       </c>
-      <c r="E63" s="327" t="s">
+      <c r="E63" s="326" t="s">
         <v>216</v>
       </c>
-      <c r="F63" s="327" t="s">
+      <c r="F63" s="326" t="s">
         <v>217</v>
       </c>
-      <c r="G63" s="327" t="s">
+      <c r="G63" s="326" t="s">
         <v>218</v>
       </c>
-      <c r="H63" s="328" t="s">
+      <c r="H63" s="327" t="s">
         <v>219</v>
       </c>
       <c r="I63" s="44"/>
@@ -5741,7 +5744,7 @@
         <v>4660</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>222</v>
       </c>
@@ -5788,7 +5791,7 @@
       </c>
       <c r="Q64" s="101"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="7" t="s">
         <v>226</v>
@@ -5833,7 +5836,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="110"/>
       <c r="B66" s="7" t="s">
         <v>230</v>
@@ -5876,7 +5879,7 @@
       </c>
       <c r="Q66" s="16"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="219" t="s">
         <v>234</v>
       </c>
@@ -5923,7 +5926,7 @@
         <v>4746</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="19" t="s">
         <v>239</v>
@@ -5960,7 +5963,7 @@
       </c>
       <c r="Q68" s="16"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="110"/>
       <c r="B69" s="19" t="s">
         <v>242</v>
@@ -6005,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="110"/>
       <c r="B70" s="19" t="s">
         <v>247</v>
@@ -6026,7 +6029,7 @@
         <v>24</v>
       </c>
       <c r="H70" s="111"/>
-      <c r="I70" s="322"/>
+      <c r="I70" s="321"/>
       <c r="J70" s="64"/>
       <c r="K70" s="65" t="s">
         <v>249</v>
@@ -6050,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="19" t="s">
         <v>251</v>
@@ -6093,7 +6096,7 @@
       </c>
       <c r="Q71" s="162"/>
     </row>
-    <row r="72" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8"/>
       <c r="B72" s="19" t="s">
         <v>255</v>
@@ -6136,8 +6139,8 @@
       </c>
       <c r="Q72" s="63"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="329" t="s">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="328" t="s">
         <v>119</v>
       </c>
       <c r="B73" s="197" t="s">
@@ -6158,30 +6161,30 @@
       <c r="G73" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="H73" s="330"/>
+      <c r="H73" s="329"/>
       <c r="I73" s="29"/>
-      <c r="J73" s="331"/>
-      <c r="K73" s="332" t="s">
+      <c r="J73" s="330"/>
+      <c r="K73" s="331" t="s">
         <v>259</v>
       </c>
       <c r="L73" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="M73" s="332" t="s">
+      <c r="M73" s="331" t="s">
         <v>1</v>
       </c>
-      <c r="N73" s="332" t="s">
+      <c r="N73" s="331" t="s">
         <v>1</v>
       </c>
-      <c r="O73" s="332" t="s">
+      <c r="O73" s="331" t="s">
         <v>34</v>
       </c>
-      <c r="P73" s="333" t="s">
+      <c r="P73" s="332" t="s">
         <v>41</v>
       </c>
-      <c r="Q73" s="334"/>
-    </row>
-    <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q73" s="333"/>
+    </row>
+    <row r="74" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="298"/>
       <c r="B74" s="299" t="s">
         <v>260</v>
@@ -6190,7 +6193,7 @@
       <c r="D74" s="299"/>
       <c r="E74" s="299"/>
       <c r="F74" s="299"/>
-      <c r="G74" s="336" t="s">
+      <c r="G74" s="335" t="s">
         <v>41</v>
       </c>
       <c r="H74" s="302"/>
@@ -6211,12 +6214,12 @@
       <c r="O74" s="304" t="s">
         <v>34</v>
       </c>
-      <c r="P74" s="335" t="s">
+      <c r="P74" s="334" t="s">
         <v>41</v>
       </c>
       <c r="Q74" s="308"/>
     </row>
-    <row r="75" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="303"/>
       <c r="B75" s="304" t="s">
         <v>262</v>
@@ -6225,7 +6228,7 @@
       <c r="D75" s="304"/>
       <c r="E75" s="304"/>
       <c r="F75" s="304"/>
-      <c r="G75" s="337" t="s">
+      <c r="G75" s="336" t="s">
         <v>41</v>
       </c>
       <c r="H75" s="308"/>
@@ -6241,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="76"/>
       <c r="B76" s="76"/>
       <c r="C76" s="76"/>
@@ -6262,12 +6265,12 @@
       <c r="P76" s="10"/>
       <c r="Q76" s="231"/>
     </row>
-    <row r="77" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="323" t="s">
+    <row r="77" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="322" t="s">
         <v>263</v>
       </c>
-      <c r="B77" s="324"/>
-      <c r="C77" s="325"/>
+      <c r="B77" s="323"/>
+      <c r="C77" s="324"/>
       <c r="D77" s="95"/>
       <c r="E77" s="96"/>
       <c r="F77" s="96"/>
@@ -6299,7 +6302,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A78" s="84" t="s">
         <v>264</v>
       </c>
@@ -6346,7 +6349,7 @@
       </c>
       <c r="Q78" s="138"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>268</v>
       </c>
@@ -6391,7 +6394,7 @@
       </c>
       <c r="Q79" s="51"/>
     </row>
-    <row r="80" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="15"/>
       <c r="B80" s="19" t="s">
         <v>270</v>
@@ -6436,7 +6439,7 @@
       </c>
       <c r="Q80" s="63"/>
     </row>
-    <row r="81" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="15"/>
       <c r="B81" s="46" t="s">
         <v>272</v>
@@ -6467,7 +6470,7 @@
       <c r="P81" s="227"/>
       <c r="Q81" s="232"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="104"/>
       <c r="B82" s="175" t="s">
         <v>1</v>
@@ -6512,7 +6515,7 @@
         <v>4067</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="104"/>
       <c r="B83" s="175" t="s">
         <v>275</v>
@@ -6555,7 +6558,7 @@
       <c r="P83" s="7"/>
       <c r="Q83" s="13"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="195" t="s">
         <v>278</v>
       </c>
@@ -6600,7 +6603,7 @@
         <v>4737</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="104"/>
       <c r="B85" s="175" t="s">
         <v>281</v>
@@ -6637,7 +6640,7 @@
       </c>
       <c r="Q85" s="16"/>
     </row>
-    <row r="86" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="195" t="s">
         <v>278</v>
       </c>
@@ -6676,7 +6679,7 @@
       </c>
       <c r="Q86" s="16"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="106"/>
       <c r="B87" s="65" t="s">
         <v>285</v>
@@ -6705,7 +6708,7 @@
       </c>
       <c r="Q87" s="16"/>
     </row>
-    <row r="88" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="109" t="s">
         <v>1</v>
       </c>
@@ -6744,7 +6747,7 @@
       </c>
       <c r="Q88" s="63"/>
     </row>
-    <row r="89" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="113"/>
       <c r="B89" s="114"/>
       <c r="C89" s="114"/>
@@ -6763,7 +6766,7 @@
       <c r="P89" s="96"/>
       <c r="Q89" s="136"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="84" t="s">
         <v>288</v>
       </c>
@@ -6810,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>291</v>
       </c>
@@ -6857,7 +6860,7 @@
       </c>
       <c r="Q91" s="101"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="46" t="s">
         <v>295</v>
@@ -6904,7 +6907,7 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="46" t="s">
         <v>298</v>
@@ -6947,7 +6950,7 @@
       </c>
       <c r="Q93" s="16"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="46" t="s">
         <v>301</v>
@@ -6990,7 +6993,7 @@
       </c>
       <c r="Q94" s="16"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="46" t="s">
         <v>304</v>
@@ -7033,7 +7036,7 @@
       </c>
       <c r="Q95" s="101"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="46" t="s">
         <v>307</v>
@@ -7076,7 +7079,7 @@
       </c>
       <c r="Q96" s="101"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="46" t="s">
         <v>311</v>
@@ -7111,7 +7114,7 @@
       </c>
       <c r="Q97" s="101"/>
     </row>
-    <row r="98" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="24"/>
       <c r="B98" s="124" t="s">
         <v>313</v>
@@ -7146,7 +7149,7 @@
       </c>
       <c r="Q98" s="101"/>
     </row>
-    <row r="99" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="139"/>
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
@@ -7171,7 +7174,7 @@
       </c>
       <c r="Q99" s="256"/>
     </row>
-    <row r="100" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
         <v>318</v>
       </c>
@@ -7210,7 +7213,7 @@
       </c>
       <c r="Q100" s="214"/>
     </row>
-    <row r="101" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>320</v>
       </c>
@@ -7241,7 +7244,7 @@
       <c r="P101" s="141"/>
       <c r="Q101" s="142"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="71">
         <v>1126</v>
@@ -7284,7 +7287,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="79"/>
       <c r="B103" s="53" t="s">
         <v>323</v>
@@ -7333,7 +7336,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="8"/>
       <c r="B104" s="71" t="s">
         <v>328</v>
@@ -7376,7 +7379,7 @@
       </c>
       <c r="Q104" s="16"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="82"/>
       <c r="B105" s="7" t="s">
         <v>330</v>
@@ -7419,7 +7422,7 @@
       </c>
       <c r="Q105" s="16"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="75"/>
       <c r="B106" s="71" t="s">
         <v>332</v>
@@ -7462,7 +7465,7 @@
       </c>
       <c r="Q106" s="16"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="75"/>
       <c r="B107" s="71" t="s">
         <v>336</v>
@@ -7505,7 +7508,7 @@
       </c>
       <c r="Q107" s="16"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="75"/>
       <c r="B108" s="71" t="s">
         <v>339</v>
@@ -7548,7 +7551,7 @@
       </c>
       <c r="Q108" s="16"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="75"/>
       <c r="B109" s="71" t="s">
         <v>344</v>
@@ -7591,7 +7594,7 @@
       </c>
       <c r="Q109" s="258"/>
     </row>
-    <row r="110" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="8"/>
       <c r="B110" s="7" t="s">
         <v>346</v>
@@ -7634,7 +7637,7 @@
       </c>
       <c r="Q110" s="261"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="B111" s="7" t="s">
         <v>350</v>
@@ -7671,7 +7674,7 @@
       </c>
       <c r="Q111" s="246"/>
     </row>
-    <row r="112" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="61"/>
       <c r="B112" s="53" t="s">
         <v>353</v>
@@ -7714,7 +7717,7 @@
       </c>
       <c r="Q112" s="216"/>
     </row>
-    <row r="113" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="53"/>
       <c r="B113" s="53" t="s">
         <v>355</v>
@@ -7745,7 +7748,7 @@
       <c r="P113" s="77"/>
       <c r="Q113" s="138"/>
     </row>
-    <row r="114" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="53"/>
       <c r="B114" s="53" t="s">
         <v>356</v>
@@ -7788,7 +7791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A115" s="53"/>
       <c r="B115" s="53" t="s">
         <v>358</v>
@@ -7829,7 +7832,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="67"/>
       <c r="B116" s="62" t="s">
         <v>363</v>
@@ -7868,7 +7871,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="144"/>
       <c r="B117" s="99"/>
       <c r="C117" s="99"/>
@@ -7901,7 +7904,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="145"/>
       <c r="B118" s="126"/>
       <c r="C118" s="126"/>
@@ -7932,9 +7935,9 @@
       </c>
       <c r="Q118" s="116"/>
     </row>
-    <row r="119" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="146"/>
-      <c r="B119" s="355"/>
+      <c r="B119" s="354"/>
       <c r="C119" s="126"/>
       <c r="D119" s="126"/>
       <c r="E119" s="126"/>
@@ -7953,7 +7956,7 @@
       <c r="P119" s="45"/>
       <c r="Q119" s="143"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="147"/>
       <c r="B120" s="126"/>
       <c r="C120" s="126"/>
@@ -7988,7 +7991,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="148"/>
       <c r="B121" s="126"/>
       <c r="C121" s="126"/>
@@ -8021,7 +8024,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="233"/>
       <c r="B122" s="126"/>
       <c r="C122" s="126"/>
@@ -8054,7 +8057,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="234"/>
       <c r="B123" s="126"/>
       <c r="C123" s="126"/>
@@ -8087,7 +8090,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="110"/>
       <c r="B124" s="126"/>
       <c r="C124" s="126"/>
@@ -8120,7 +8123,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="242"/>
       <c r="B125" s="243"/>
       <c r="C125" s="243"/>
@@ -8153,7 +8156,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -8172,7 +8175,7 @@
       <c r="P126" s="43"/>
       <c r="Q126" s="149"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -8207,7 +8210,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -8238,7 +8241,7 @@
       </c>
       <c r="Q128" s="13"/>
     </row>
-    <row r="129" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I129" s="2"/>
       <c r="J129" s="61"/>
       <c r="K129" s="53" t="s">
@@ -8263,7 +8266,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="130" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I130" s="2"/>
       <c r="J130" s="61"/>
       <c r="K130" s="53" t="s">
@@ -8288,7 +8291,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="131" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I131" s="2"/>
       <c r="J131" s="61"/>
       <c r="K131" s="53" t="s">
@@ -8313,7 +8316,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="132" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I132" s="2"/>
       <c r="J132" s="61"/>
       <c r="K132" s="53" t="s">
@@ -8338,7 +8341,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="133" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I133" s="2"/>
       <c r="J133" s="61"/>
       <c r="K133" s="53" t="s">
@@ -8363,7 +8366,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="134" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I134" s="2"/>
       <c r="J134" s="64"/>
       <c r="K134" s="65" t="s">
@@ -8388,7 +8391,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="135" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I135" s="2"/>
       <c r="J135" s="145"/>
       <c r="K135" s="284" t="s">
@@ -8405,7 +8408,7 @@
       </c>
       <c r="Q135" s="286"/>
     </row>
-    <row r="136" spans="9:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I136" s="2"/>
       <c r="J136" s="287"/>
       <c r="K136" s="288" t="s">
@@ -8422,7 +8425,7 @@
       </c>
       <c r="Q136" s="116"/>
     </row>
-    <row r="137" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I137" s="2"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -8433,7 +8436,7 @@
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
     </row>
-    <row r="138" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I138" s="2"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
@@ -8444,7 +8447,7 @@
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
     </row>
-    <row r="139" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I139" s="2"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
@@ -8455,7 +8458,7 @@
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
     </row>
-    <row r="140" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I140" s="2"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
@@ -8466,7 +8469,7 @@
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
     </row>
-    <row r="141" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I141" s="2"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
@@ -8477,7 +8480,7 @@
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
     </row>
-    <row r="142" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I142" s="2"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
@@ -8499,7 +8502,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -8511,7 +8514,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
